--- a/excel/exported/sugar_headers.xlsx
+++ b/excel/exported/sugar_headers.xlsx
@@ -10,6 +10,68 @@
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+  <si>
+    <t>2020-10-09 16:51:26.0000000</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>3B1</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2020-10-11 03:51:49.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-09 17:04:37.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-09 23:51:26.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-09 23:55:04.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-09 17:00:50.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-10 06:55:44.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-09 17:07:02.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:55:56.0000000</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>ADDD</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>2020-10-10 20:56:15.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-09 17:03:43.0000000</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,8 +113,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q4"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>9</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>1000</v>
+      </c>
+      <c r="I1">
+        <v>200</v>
+      </c>
+      <c r="J1">
+        <v>1003</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1003</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>1003</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <v>1003</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>